--- a/Projects/STYR-N/S1-3_1993_2010_UD4.xlsx
+++ b/Projects/STYR-N/S1-3_1993_2010_UD4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="28">
   <si>
     <t>action</t>
   </si>
@@ -108,6 +108,9 @@
   <si>
     <t>Silomajs, Ryegrass</t>
   </si>
+  <si>
+    <t>SB, Pea</t>
+  </si>
 </sst>
 </file>
 
@@ -169,6 +172,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,12 +399,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,9 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2021,14 +2029,12 @@
         <v>1</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="31">
-        <v>40036</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E64" s="33">
+        <v>40283</v>
+      </c>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -2041,12 +2047,14 @@
         <v>1</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" s="33">
-        <v>40283</v>
-      </c>
-      <c r="F65" s="4"/>
+        <v>40290</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
@@ -2059,52 +2067,24 @@
         <v>1</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E66" s="33">
-        <v>40283</v>
-      </c>
-      <c r="F66" s="4"/>
+        <v>40422</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>4</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="14">
-        <v>1</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="33">
-        <v>40290</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>4</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="14">
-        <v>1</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="33">
-        <v>40422</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C69" s="4"/>
@@ -2789,42 +2769,32 @@
       <c r="G182" s="4"/>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="10"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="F184" s="4"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="9"/>
       <c r="G184" s="4"/>
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C185" s="10"/>
-      <c r="D185" s="23"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="4"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="12"/>
       <c r="G185" s="4"/>
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C186" s="10"/>
       <c r="D186" s="6"/>
       <c r="E186" s="23"/>
-      <c r="F186" s="9"/>
+      <c r="F186" s="12"/>
       <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C187" s="10"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="23"/>
-      <c r="F187" s="12"/>
-    </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C188" s="10"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="23"/>
-      <c r="F188" s="12"/>
     </row>
   </sheetData>
   <sortState ref="C2:G185">
@@ -2841,7 +2811,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:B68"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4202,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4254,7 +4224,7 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="29">
         <v>34444</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -4277,7 +4247,7 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="29">
         <v>34444</v>
       </c>
       <c r="F3" s="9"/>
@@ -4296,7 +4266,7 @@
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="29">
         <v>34448</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -4317,7 +4287,7 @@
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="29">
         <v>34632</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -4338,7 +4308,7 @@
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="29">
         <v>34815</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -4361,7 +4331,7 @@
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="29">
         <v>34815</v>
       </c>
       <c r="F7" s="9"/>
@@ -4380,7 +4350,7 @@
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="29">
         <v>34817</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -4401,7 +4371,7 @@
       <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="29">
         <v>34927</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -4422,7 +4392,7 @@
       <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="29">
         <v>35222</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -4443,7 +4413,7 @@
       <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="29">
         <v>35534</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -4466,7 +4436,7 @@
       <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="29">
         <v>35592</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -4487,7 +4457,7 @@
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="23">
         <v>35899</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -4510,7 +4480,7 @@
       <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="23">
         <v>35899</v>
       </c>
       <c r="F14" s="9"/>
@@ -4529,7 +4499,7 @@
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="23">
         <v>35905</v>
       </c>
       <c r="F15" s="63" t="s">
@@ -4550,7 +4520,7 @@
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="23">
         <v>36004</v>
       </c>
       <c r="F16" s="63" t="s">
@@ -4571,7 +4541,7 @@
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="23">
         <v>36248</v>
       </c>
       <c r="F17" s="64" t="s">
@@ -4613,7 +4583,7 @@
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="23">
         <v>36259</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -4634,7 +4604,7 @@
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="23">
         <v>36404</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -4655,7 +4625,7 @@
       <c r="D21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="29">
         <v>36620</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -4678,7 +4648,7 @@
       <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="29">
         <v>36620</v>
       </c>
       <c r="F22" s="9"/>
@@ -4697,7 +4667,7 @@
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="29">
         <v>36634</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -4718,7 +4688,7 @@
       <c r="D24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="29">
         <v>36825</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -4739,7 +4709,7 @@
       <c r="D25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="23">
         <v>36987</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -4762,7 +4732,7 @@
       <c r="D26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="23">
         <v>36987</v>
       </c>
       <c r="F26" s="9"/>
@@ -4823,7 +4793,7 @@
       <c r="D29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="30">
         <v>37405</v>
       </c>
       <c r="F29" s="22" t="s">
@@ -4844,13 +4814,15 @@
       <c r="D30" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="30">
         <v>37727</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -4865,7 +4837,7 @@
       <c r="D31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="30">
         <v>37774</v>
       </c>
       <c r="F31" s="22" t="s">
@@ -4886,7 +4858,7 @@
       <c r="D32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="30">
         <v>38075</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -4909,7 +4881,7 @@
       <c r="D33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="30">
         <v>38079</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -4930,7 +4902,7 @@
       <c r="D34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="30">
         <v>38092</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -4951,7 +4923,7 @@
       <c r="D35" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="30">
         <v>38233</v>
       </c>
       <c r="F35" s="22" t="s">
@@ -4972,7 +4944,7 @@
       <c r="D36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="23">
         <v>38443</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -5035,7 +5007,7 @@
       <c r="D39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="23">
         <v>38443</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -5056,7 +5028,7 @@
       <c r="D40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="29">
         <v>38586</v>
       </c>
       <c r="F40" s="22" t="s">
@@ -5149,7 +5121,7 @@
       <c r="E44" s="58">
         <v>39962</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="59">
@@ -5172,7 +5144,7 @@
       <c r="E45" s="58">
         <v>40262</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G45" s="59">
@@ -5211,7 +5183,7 @@
       <c r="D47" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="33">
         <v>40290</v>
       </c>
       <c r="F47" s="16" t="s">
@@ -5235,7 +5207,7 @@
       <c r="E48" s="58">
         <v>40343</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G48" s="59">
@@ -5255,7 +5227,7 @@
       <c r="D49" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="33">
         <v>40358</v>
       </c>
       <c r="F49" s="19" t="s">
@@ -5276,7 +5248,7 @@
       <c r="D50" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="62">
+      <c r="E50" s="32">
         <v>40359</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -5297,7 +5269,7 @@
       <c r="D51" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="62">
+      <c r="E51" s="32">
         <v>40413</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -5318,7 +5290,7 @@
       <c r="D52" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="31">
         <v>40463</v>
       </c>
       <c r="F52" s="18" t="s">
@@ -5339,7 +5311,7 @@
       <c r="D53" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="62">
+      <c r="E53" s="32">
         <v>40477</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -5394,6 +5366,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G55">
+    <sortCondition ref="E2:E55"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>